--- a/Sprint 2 samoocena zespołu.xlsx
+++ b/Sprint 2 samoocena zespołu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikol\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikol\Desktop\IO\IO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935F1C32-40EF-4471-A811-0AE4FD5E90BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6278ABBF-EF35-42F2-B662-A492E6047FAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -753,7 +753,7 @@
   </sheetPr>
   <dimension ref="A1:AB1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
